--- a/data/trans_dic/P16A04-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A04-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P16A04-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A04-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -661,57 +661,57 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,9%</t>
         </is>
       </c>
     </row>
@@ -729,57 +729,57 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,57</t>
+          <t>0,7; 6,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>1,69; 9,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>0,82; 7,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>0,0; 5,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>0,0; 5,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>0,0; 5,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>1,14; 5,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>0,0; 2,63</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,87</t>
+          <t>0,8; 5,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>0,91; 5,54</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>1,55; 5,39</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,0%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,51; 2,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>2,47; 6,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,46; 2,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0,83; 3,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0,85; 3,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>1,81; 4,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>1,37; 4,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>1,48; 3,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0,92; 2,35</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>2,41; 4,87</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>1,19; 2,99</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>1,44; 2,89</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,55%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>1,63; 3,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>2,05; 4,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>1,26; 3,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>1,29; 3,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>1,14; 3,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>3,08; 5,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>1,42; 3,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>2,12; 3,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>1,58; 2,98</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>2,89; 4,66</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,52; 2,76</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>1,92; 3,33</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,57%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,7; 2,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>1,76; 4,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0,67; 2,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>1,44; 4,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>2,42; 5,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0,74; 2,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>1,07; 3,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>1,63; 3,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>1,74; 3,47</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>1,45; 3,03</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>1,01; 2,38</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>1,72; 3,5</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,65%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>1,12; 2,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>1,04; 3,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>1,95; 4,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>1,78; 3,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>1,14; 2,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>1,76; 3,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>1,7; 3,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>3,3; 6,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,34; 2,56</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,68; 3,03</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>2,02; 3,55</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>2,87; 4,84</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,8%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,4; 2,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,28; 3,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,6; 2,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,81; 3,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,7; 2,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,37; 3,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,79; 2,86</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>2,67; 3,99</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>1,69; 2,39</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>2,43; 3,31</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>1,83; 2,59</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>2,41; 3,28</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A04-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A04-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>2,15%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>0,55; 2,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,7; 6,16</t>
+          <t>2,33; 5,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,69; 9,0</t>
+          <t>1,0; 3,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 7,99</t>
+          <t>1,04; 3,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,13</t>
+          <t>0,86; 2,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,51</t>
+          <t>1,86; 4,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,13</t>
+          <t>1,29; 3,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,14; 5,29</t>
+          <t>1,62; 3,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,63</t>
+          <t>0,89; 2,13</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 5,0</t>
+          <t>2,42; 4,5</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 5,54</t>
+          <t>1,37; 2,96</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,55; 5,39</t>
+          <t>1,63; 2,96</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>3,05%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>2,25%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>1,51%</t>
-        </is>
-      </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>2,33%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,43</t>
+          <t>1,63; 3,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,47; 6,08</t>
+          <t>2,05; 4,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,78</t>
+          <t>1,26; 3,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,31</t>
+          <t>0,81; 2,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,0</t>
+          <t>1,14; 3,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,81; 4,8</t>
+          <t>3,08; 5,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,37; 4,2</t>
+          <t>1,42; 3,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,48; 3,43</t>
+          <t>2,17; 4,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,35</t>
+          <t>1,58; 2,98</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,41; 4,87</t>
+          <t>2,89; 4,66</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,99</t>
+          <t>1,52; 2,76</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 2,89</t>
+          <t>1,51; 3,03</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>3,71%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1,45%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>1,91%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>4,18%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>2,21%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>2,39%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,63; 3,87</t>
+          <t>0,7; 2,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,6</t>
+          <t>1,76; 4,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,08</t>
+          <t>0,67; 2,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 3,53</t>
+          <t>1,4; 4,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,06</t>
+          <t>2,42; 5,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,08; 5,88</t>
+          <t>0,74; 2,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,25</t>
+          <t>1,07; 3,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 3,97</t>
+          <t>1,16; 3,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,58; 2,98</t>
+          <t>1,74; 3,47</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,89; 4,66</t>
+          <t>1,45; 3,03</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,52; 2,76</t>
+          <t>1,01; 2,38</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 3,33</t>
+          <t>1,41; 3,31</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>3,44%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,39</t>
+          <t>1,12; 2,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,28</t>
+          <t>1,04; 3,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,55</t>
+          <t>1,95; 4,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,31</t>
+          <t>1,76; 3,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,42; 5,29</t>
+          <t>1,14; 2,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,66</t>
+          <t>1,76; 3,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,7</t>
+          <t>1,7; 3,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,63; 3,78</t>
+          <t>2,99; 5,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,74; 3,47</t>
+          <t>1,34; 2,56</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,03</t>
+          <t>1,68; 3,03</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,01; 2,38</t>
+          <t>2,02; 3,55</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,72; 3,5</t>
+          <t>2,68; 4,42</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>2,63%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,12; 2,82</t>
+          <t>1,4; 2,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,07</t>
+          <t>2,28; 3,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,95; 4,19</t>
+          <t>1,6; 2,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,78; 3,86</t>
+          <t>1,59; 2,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,14; 2,81</t>
+          <t>1,7; 2,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,76; 3,71</t>
+          <t>2,37; 3,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,7; 3,76</t>
+          <t>1,79; 2,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,3; 6,77</t>
+          <t>2,42; 3,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,34; 2,56</t>
+          <t>1,69; 2,39</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,68; 3,03</t>
+          <t>2,43; 3,31</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,02; 3,55</t>
+          <t>1,83; 2,59</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,87; 4,84</t>
+          <t>2,2; 3,07</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,79%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,83%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,04%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>2,32%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>2,21%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>2,86%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>2,26%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>3,22%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>2,01%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>2,85%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>2,15%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>2,8%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>1,4; 2,34</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>2,28; 3,57</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1,6; 2,61</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>1,81; 3,01</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>1,7; 2,77</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>2,37; 3,51</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>1,79; 2,86</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>2,67; 3,99</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>1,69; 2,39</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>2,43; 3,31</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>1,83; 2,59</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>2,41; 3,28</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P16A04-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A04-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,06</t>
+          <t>0,54; 2,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,33; 5,57</t>
+          <t>2,32; 5,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,12</t>
+          <t>0,89; 3,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,44</t>
+          <t>1,09; 3,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,8</t>
+          <t>0,93; 2,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,86; 4,41</t>
+          <t>1,74; 4,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 3,55</t>
+          <t>1,37; 3,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,62; 3,31</t>
+          <t>1,64; 3,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 2,13</t>
+          <t>0,87; 2,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,42; 4,5</t>
+          <t>2,38; 4,52</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,37; 2,96</t>
+          <t>1,41; 2,95</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,63; 2,96</t>
+          <t>1,6; 2,92</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,63; 3,87</t>
+          <t>1,67; 3,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,6</t>
+          <t>2,1; 4,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,08</t>
+          <t>1,16; 2,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,99</t>
+          <t>0,78; 2,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,06</t>
+          <t>1,11; 3,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,08; 5,88</t>
+          <t>3,05; 5,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,25</t>
+          <t>1,5; 3,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 4,07</t>
+          <t>2,31; 4,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,58; 2,98</t>
+          <t>1,62; 3,14</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,89; 4,66</t>
+          <t>2,84; 4,67</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,52; 2,76</t>
+          <t>1,54; 2,8</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,51; 3,03</t>
+          <t>1,52; 3,11</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,39</t>
+          <t>0,69; 2,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,28</t>
+          <t>1,7; 4,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,55</t>
+          <t>0,55; 2,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,35</t>
+          <t>1,38; 4,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,42; 5,29</t>
+          <t>2,35; 5,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,66</t>
+          <t>0,67; 2,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,7</t>
+          <t>1,01; 3,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,58</t>
+          <t>1,04; 3,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,74; 3,47</t>
+          <t>1,89; 3,49</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,03</t>
+          <t>1,49; 3,1</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 2,38</t>
+          <t>1,02; 2,4</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,41; 3,31</t>
+          <t>1,53; 3,38</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,12; 2,82</t>
+          <t>1,09; 2,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,07</t>
+          <t>1,16; 3,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,95; 4,19</t>
+          <t>1,96; 4,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,76; 3,88</t>
+          <t>1,8; 3,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,14; 2,81</t>
+          <t>1,16; 2,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,76; 3,71</t>
+          <t>1,69; 3,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,7; 3,76</t>
+          <t>1,72; 3,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,99; 5,92</t>
+          <t>2,9; 6,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,34; 2,56</t>
+          <t>1,28; 2,46</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,68; 3,03</t>
+          <t>1,63; 3,12</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,02; 3,55</t>
+          <t>2,09; 3,59</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,68; 4,42</t>
+          <t>2,69; 4,63</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,4; 2,34</t>
+          <t>1,4; 2,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,28; 3,57</t>
+          <t>2,14; 3,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,6; 2,61</t>
+          <t>1,59; 2,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,59; 2,88</t>
+          <t>1,64; 2,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,7; 2,77</t>
+          <t>1,72; 2,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,37; 3,51</t>
+          <t>2,35; 3,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,79; 2,86</t>
+          <t>1,79; 2,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,42; 3,7</t>
+          <t>2,42; 3,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,69; 2,39</t>
+          <t>1,68; 2,38</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,43; 3,31</t>
+          <t>2,42; 3,29</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,83; 2,59</t>
+          <t>1,79; 2,56</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,2; 3,07</t>
+          <t>2,21; 3,08</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido antibióticos en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7611</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>25937</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>12227</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>12265</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11544</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>20248</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>15030</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>15905</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>19156</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>46185</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>27256</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>28169</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3736; 14277</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>16270; 39908</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6038; 22746</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6939; 20479</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6428; 19957</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>12081; 30848</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>9227; 24330</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>11077; 22236</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>12011; 29541</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>33245; 63009</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>19048; 39807</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>20957; 38309</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>24929</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>31418</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>19715</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>20960</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>18457</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>42955</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>23014</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>29190</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>43386</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>74373</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>42729</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>50150</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>16074; 37762</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>21314; 46589</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>11911; 29746</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>9357; 34295</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>10771; 29419</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>31374; 58711</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>15622; 36301</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>22151; 39759</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>31364; 60544</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>57984; 95360</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>31774; 57923</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>32750; 66844</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>9129</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>21066</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>10004</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>17062</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>25376</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>11291</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>14956</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>22006</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>34504</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>32356</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>24960</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>39068</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4649; 16599</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>12876; 32961</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4181; 17868</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9737; 29391</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>16061; 35361</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5220; 19726</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7951; 25642</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9714; 33325</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>25757; 47479</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>22841; 47509</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>15695; 37007</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>25026; 55299</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>16993</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>18384</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>27188</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>24908</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>19413</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>26824</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>26964</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>44556</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>36406</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>45208</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>54152</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>69465</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>10268; 26402</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>10943; 30560</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>18368; 39288</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>16659; 36806</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>12048; 29981</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>17703; 37804</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>17982; 40609</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>31664; 66241</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>25453; 48673</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>32498; 62151</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>41446; 71202</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>54264; 93493</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>58663</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>96805</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>69134</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>75194</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>74790</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>101318</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>79964</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>111657</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>133452</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>198123</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>149098</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>186852</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>45782; 74568</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>73191; 118752</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>53948; 87983</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>56889; 97638</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>58066; 93580</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>83466; 124986</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>63427; 102289</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>88403; 136558</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>112047; 158487</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>168636; 229140</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>124314; 177422</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>157336; 219395</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>